--- a/Model1/ArabidopsisData.xlsx
+++ b/Model1/ArabidopsisData.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="17">
   <si>
     <t xml:space="preserve">Genotype</t>
   </si>
@@ -43,13 +43,22 @@
     <t xml:space="preserve">BI</t>
   </si>
   <si>
+    <t xml:space="preserve">Dist</t>
+  </si>
+  <si>
     <t xml:space="preserve">Col-0</t>
   </si>
   <si>
     <t xml:space="preserve">Experiment</t>
   </si>
   <si>
+    <t xml:space="preserve">WT</t>
+  </si>
+  <si>
     <t xml:space="preserve">dwf4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutant</t>
   </si>
   <si>
     <t xml:space="preserve">cpd</t>
@@ -164,19 +173,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,15 +201,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14:H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,13 +342,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>38</v>
@@ -249,6 +367,9 @@
       </c>
       <c r="G2" s="3" t="n">
         <v>1.80849038644584</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -258,10 +379,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>37</v>
@@ -278,15 +399,18 @@
       <c r="G3" s="3" t="n">
         <v>1.55051753761053</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>34</v>
@@ -303,13 +427,16 @@
       <c r="G4" s="3" t="n">
         <v>1.62983557835195</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>47</v>
@@ -326,13 +453,16 @@
       <c r="G5" s="3" t="n">
         <v>1.94391595665481</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>46</v>
@@ -349,13 +479,16 @@
       <c r="G6" s="3" t="n">
         <v>1.70648464163823</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>55</v>
@@ -372,13 +505,16 @@
       <c r="G7" s="3" t="n">
         <v>1.65742526518804</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>33</v>
@@ -395,13 +531,16 @@
       <c r="G8" s="3" t="n">
         <v>1.7585931254996</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>38</v>
@@ -418,13 +557,16 @@
       <c r="G9" s="3" t="n">
         <v>2.0378613181745</v>
       </c>
+      <c r="H9" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>37</v>
@@ -441,13 +583,16 @@
       <c r="G10" s="3" t="n">
         <v>1.79829890643985</v>
       </c>
+      <c r="H10" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>51</v>
@@ -464,13 +609,16 @@
       <c r="G11" s="3" t="n">
         <v>2.18321917808219</v>
       </c>
+      <c r="H11" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>45</v>
@@ -487,13 +635,16 @@
       <c r="G12" s="3" t="n">
         <v>2.23925159235669</v>
       </c>
+      <c r="H12" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>32</v>
@@ -510,13 +661,16 @@
       <c r="G13" s="3" t="n">
         <v>2.08414745343233</v>
       </c>
+      <c r="H13" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>4</v>
@@ -533,13 +687,16 @@
       <c r="G14" s="3" t="n">
         <v>1.85013876040703</v>
       </c>
+      <c r="H14" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>4</v>
@@ -556,13 +713,16 @@
       <c r="G15" s="3" t="n">
         <v>1.96174595389897</v>
       </c>
+      <c r="H15" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>2</v>
@@ -579,13 +739,16 @@
       <c r="G16" s="3" t="n">
         <v>1.06723585912487</v>
       </c>
+      <c r="H16" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>3</v>
@@ -602,13 +765,16 @@
       <c r="G17" s="3" t="n">
         <v>0.8424599831508</v>
       </c>
+      <c r="H17" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>2</v>
@@ -625,13 +791,16 @@
       <c r="G18" s="3" t="n">
         <v>1.01214574898785</v>
       </c>
+      <c r="H18" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>6</v>
@@ -648,13 +817,16 @@
       <c r="G19" s="3" t="n">
         <v>2.48344370860927</v>
       </c>
+      <c r="H19" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>2</v>
@@ -671,13 +843,16 @@
       <c r="G20" s="3" t="n">
         <v>1.1968880909635</v>
       </c>
+      <c r="H20" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>10</v>
@@ -694,13 +869,16 @@
       <c r="G21" s="3" t="n">
         <v>2.61028452101279</v>
       </c>
+      <c r="H21" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>4</v>
@@ -717,13 +895,16 @@
       <c r="G22" s="3" t="n">
         <v>1.74520069808028</v>
       </c>
+      <c r="H22" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>7</v>
@@ -740,13 +921,16 @@
       <c r="G23" s="3" t="n">
         <v>2.13544844417328</v>
       </c>
+      <c r="H23" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>4</v>
@@ -763,13 +947,16 @@
       <c r="G24" s="3" t="n">
         <v>1.66458593424886</v>
       </c>
+      <c r="H24" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
@@ -786,13 +973,16 @@
       <c r="G25" s="3" t="n">
         <v>1.12359550561798</v>
       </c>
+      <c r="H25" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>4</v>
@@ -809,13 +999,16 @@
       <c r="G26" s="3" t="n">
         <v>1.60965794768612</v>
       </c>
+      <c r="H26" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0</v>
@@ -832,13 +1025,16 @@
       <c r="G27" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="H27" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>3</v>
@@ -855,13 +1051,16 @@
       <c r="G28" s="3" t="n">
         <v>2.67857142857143</v>
       </c>
+      <c r="H28" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>3</v>
@@ -878,13 +1077,16 @@
       <c r="G29" s="3" t="n">
         <v>2.07325501036627</v>
       </c>
+      <c r="H29" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>3</v>
@@ -901,13 +1103,16 @@
       <c r="G30" s="3" t="n">
         <v>1.70648464163823</v>
       </c>
+      <c r="H30" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>3</v>
@@ -924,13 +1129,16 @@
       <c r="G31" s="3" t="n">
         <v>1.86335403726708</v>
       </c>
+      <c r="H31" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>6</v>
@@ -947,13 +1155,16 @@
       <c r="G32" s="3" t="n">
         <v>1.93610842207164</v>
       </c>
+      <c r="H32" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>7</v>
@@ -970,13 +1181,16 @@
       <c r="G33" s="3" t="n">
         <v>1.83534347142108</v>
       </c>
+      <c r="H33" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>3</v>
@@ -993,13 +1207,16 @@
       <c r="G34" s="3" t="n">
         <v>1.40911225927666</v>
       </c>
+      <c r="H34" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>3</v>
@@ -1016,13 +1233,16 @@
       <c r="G35" s="3" t="n">
         <v>1.59659393294305</v>
       </c>
+      <c r="H35" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>4</v>
@@ -1039,13 +1259,16 @@
       <c r="G36" s="3" t="n">
         <v>1.31104555883317</v>
       </c>
+      <c r="H36" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>3</v>
@@ -1062,13 +1285,16 @@
       <c r="G37" s="3" t="n">
         <v>1.44787644787645</v>
       </c>
+      <c r="H37" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>4</v>
@@ -1085,13 +1311,16 @@
       <c r="G38" s="3" t="n">
         <v>0.970638194612958</v>
       </c>
+      <c r="H38" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>4</v>
@@ -1108,13 +1337,16 @@
       <c r="G39" s="3" t="n">
         <v>1.15707260630605</v>
       </c>
+      <c r="H39" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>7</v>
@@ -1131,13 +1363,16 @@
       <c r="G40" s="3" t="n">
         <v>2.45527884952648</v>
       </c>
+      <c r="H40" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>6</v>
@@ -1154,13 +1389,16 @@
       <c r="G41" s="3" t="n">
         <v>1.92492781520693</v>
       </c>
+      <c r="H41" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>2</v>
@@ -1177,13 +1415,16 @@
       <c r="G42" s="3" t="n">
         <v>1.1441647597254</v>
       </c>
+      <c r="H42" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>4</v>
@@ -1200,13 +1441,16 @@
       <c r="G43" s="3" t="n">
         <v>1.73160173160173</v>
       </c>
+      <c r="H43" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>7</v>
@@ -1223,13 +1467,16 @@
       <c r="G44" s="3" t="n">
         <v>2.68199233716475</v>
       </c>
+      <c r="H44" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>4</v>
@@ -1246,13 +1493,16 @@
       <c r="G45" s="3" t="n">
         <v>1.18133490844654</v>
       </c>
+      <c r="H45" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>6</v>
@@ -1269,13 +1519,16 @@
       <c r="G46" s="3" t="n">
         <v>1.67926112510495</v>
       </c>
+      <c r="H46" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1</v>
@@ -1292,13 +1545,16 @@
       <c r="G47" s="4" t="n">
         <v>0.927643784786642</v>
       </c>
+      <c r="H47" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>5</v>
@@ -1315,13 +1571,16 @@
       <c r="G48" s="3" t="n">
         <v>2.8184892897407</v>
       </c>
+      <c r="H48" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>3</v>
@@ -1338,13 +1597,16 @@
       <c r="G49" s="3" t="n">
         <v>1.3262599469496</v>
       </c>
+      <c r="H49" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>4</v>
@@ -1361,13 +1623,16 @@
       <c r="G50" s="3" t="n">
         <v>1.38888888888889</v>
       </c>
+      <c r="H50" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>7</v>
@@ -1384,13 +1649,16 @@
       <c r="G51" s="3" t="n">
         <v>3.29566854990584</v>
       </c>
+      <c r="H51" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>3</v>
@@ -1407,13 +1675,16 @@
       <c r="G52" s="3" t="n">
         <v>1.50678051230537</v>
       </c>
+      <c r="H52" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>8</v>
@@ -1430,13 +1701,16 @@
       <c r="G53" s="3" t="n">
         <v>2.39449266686621</v>
       </c>
+      <c r="H53" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>6</v>
@@ -1453,13 +1727,16 @@
       <c r="G54" s="3" t="n">
         <v>1.18929633300297</v>
       </c>
+      <c r="H54" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>9</v>
@@ -1476,13 +1753,16 @@
       <c r="G55" s="3" t="n">
         <v>1.47783251231527</v>
       </c>
+      <c r="H55" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4</v>
@@ -1499,13 +1779,16 @@
       <c r="G56" s="4" t="n">
         <v>1.55702608018684</v>
       </c>
+      <c r="H56" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>9</v>
@@ -1522,13 +1805,16 @@
       <c r="G57" s="3" t="n">
         <v>1.93008792622775</v>
       </c>
+      <c r="H57" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4</v>
@@ -1545,13 +1831,16 @@
       <c r="G58" s="3" t="n">
         <v>1.24843945068664</v>
       </c>
+      <c r="H58" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>7</v>
@@ -1568,13 +1857,16 @@
       <c r="G59" s="3" t="n">
         <v>1.87215833110457</v>
       </c>
+      <c r="H59" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>6</v>
@@ -1591,13 +1883,16 @@
       <c r="G60" s="3" t="n">
         <v>1.22774708410068</v>
       </c>
+      <c r="H60" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>10</v>
@@ -1614,13 +1909,16 @@
       <c r="G61" s="3" t="n">
         <v>2.90275761973875</v>
       </c>
+      <c r="H61" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>15</v>
@@ -1637,13 +1935,16 @@
       <c r="G62" s="3" t="n">
         <v>2.49791840133222</v>
       </c>
+      <c r="H62" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>6</v>
@@ -1660,13 +1961,16 @@
       <c r="G63" s="3" t="n">
         <v>1.131648434553</v>
       </c>
+      <c r="H63" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>7</v>
@@ -1683,13 +1987,16 @@
       <c r="G64" s="3" t="n">
         <v>1.77619893428064</v>
       </c>
+      <c r="H64" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>9</v>
@@ -1706,13 +2013,16 @@
       <c r="G65" s="3" t="n">
         <v>1.7516543402102</v>
       </c>
+      <c r="H65" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>5</v>
@@ -1729,13 +2039,16 @@
       <c r="G66" s="3" t="n">
         <v>0.900414190527643</v>
       </c>
+      <c r="H66" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>12</v>
@@ -1752,13 +2065,16 @@
       <c r="G67" s="3" t="n">
         <v>1.76574455562095</v>
       </c>
+      <c r="H67" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>9</v>
@@ -1775,13 +2091,16 @@
       <c r="G68" s="3" t="n">
         <v>1.3880320789636</v>
       </c>
+      <c r="H68" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3</v>
@@ -1798,13 +2117,16 @@
       <c r="G69" s="3" t="n">
         <v>1.24584717607973</v>
       </c>
+      <c r="H69" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>7</v>
@@ -1821,13 +2143,16 @@
       <c r="G70" s="3" t="n">
         <v>2.06733608978145</v>
       </c>
+      <c r="H70" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>9</v>
@@ -1844,13 +2169,16 @@
       <c r="G71" s="3" t="n">
         <v>2.10427870002338</v>
       </c>
+      <c r="H71" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>9</v>
@@ -1867,13 +2195,16 @@
       <c r="G72" s="3" t="n">
         <v>1.71985476781961</v>
       </c>
+      <c r="H72" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>6</v>
@@ -1890,13 +2221,16 @@
       <c r="G73" s="3" t="n">
         <v>1.82648401826484</v>
       </c>
+      <c r="H73" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" s="3" t="n">
         <v>8</v>
@@ -1913,13 +2247,16 @@
       <c r="G74" s="3" t="n">
         <v>1.64744645799012</v>
       </c>
+      <c r="H74" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" s="3" t="n">
         <v>6</v>
@@ -1936,13 +2273,16 @@
       <c r="G75" s="3" t="n">
         <v>2.77392510402219</v>
       </c>
+      <c r="H75" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>1</v>
@@ -1959,13 +2299,16 @@
       <c r="G76" s="3" t="n">
         <v>0.506072874493927</v>
       </c>
+      <c r="H76" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" s="3" t="n">
         <v>7</v>
@@ -1982,13 +2325,16 @@
       <c r="G77" s="3" t="n">
         <v>2.640513013957</v>
       </c>
+      <c r="H77" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" s="3" t="n">
         <v>3</v>
@@ -2005,13 +2351,16 @@
       <c r="G78" s="3" t="n">
         <v>0.923076923076923</v>
       </c>
+      <c r="H78" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>6</v>
@@ -2028,13 +2377,16 @@
       <c r="G79" s="3" t="n">
         <v>1.73360300491188</v>
       </c>
+      <c r="H79" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>8</v>
@@ -2051,13 +2403,16 @@
       <c r="G80" s="3" t="n">
         <v>1.92631832410306</v>
       </c>
+      <c r="H80" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" s="3" t="n">
         <v>6</v>
@@ -2074,13 +2429,16 @@
       <c r="G81" s="3" t="n">
         <v>2.04848071013998</v>
       </c>
+      <c r="H81" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" s="3" t="n">
         <v>10</v>
@@ -2097,13 +2455,16 @@
       <c r="G82" s="3" t="n">
         <v>1.73852573018081</v>
       </c>
+      <c r="H82" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>8</v>
@@ -2120,13 +2481,16 @@
       <c r="G83" s="3" t="n">
         <v>2.00551516670845</v>
       </c>
+      <c r="H83" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" s="3" t="n">
         <v>9</v>
@@ -2143,13 +2507,16 @@
       <c r="G84" s="3" t="n">
         <v>2.08092485549133</v>
       </c>
+      <c r="H84" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" s="3" t="n">
         <v>9</v>
@@ -2165,12 +2532,15 @@
       </c>
       <c r="G85" s="3" t="n">
         <v>2.3646873357856</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
